--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\mofiler\WorldCup\process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -191,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,7 +212,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,12 +587,12 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
     </row>
@@ -587,7 +602,7 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -119,8 +114,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +154,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -172,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,10 +207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,194 +483,192 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>2</v>
       </c>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -493,7 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -547,12 +549,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -564,12 +571,12 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -643,7 +650,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -490,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -556,12 +557,12 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -650,12 +651,12 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="13" t="s">
         <v>21</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Process</t>
   </si>
@@ -109,13 +114,22 @@
   </si>
   <si>
     <t>Home Page</t>
+  </si>
+  <si>
+    <t>Open Database in Application</t>
+  </si>
+  <si>
+    <t>Inject Database to Services</t>
+  </si>
+  <si>
+    <t>Get By Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,13 +226,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,195 +504,210 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25">
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="12" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="11" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="13" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="13" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -230,7 +224,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -514,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,17 +527,17 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -623,17 +616,17 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A32" sqref="A1:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -537,12 +537,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A1:A32"/>
+      <selection activeCell="A37" sqref="A1:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +654,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\worldcup\process\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Process</t>
   </si>
@@ -68,9 +63,6 @@
     <t>View One Match</t>
   </si>
   <si>
-    <t>Edit/New Match</t>
-  </si>
-  <si>
     <t>Edit/New Team wo/Validation</t>
   </si>
   <si>
@@ -123,13 +115,19 @@
   </si>
   <si>
     <t>Get By Id</t>
+  </si>
+  <si>
+    <t>New Match</t>
+  </si>
+  <si>
+    <t>Edit Match</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,7 +219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -497,210 +494,215 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:A37"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
+      <c r="A25" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Process</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Edit Match</t>
+  </si>
+  <si>
+    <t>Delete Match</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -638,71 +641,76 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
-    </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
-    </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -646,7 +653,7 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -669,7 +676,7 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
     </row>

--- a/process/Iteration01.xlsx
+++ b/process/Iteration01.xlsx
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,19 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,19 +207,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -534,22 +519,22 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -557,17 +542,17 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -575,32 +560,32 @@
       <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -608,57 +593,57 @@
       <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -666,17 +651,17 @@
       <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -684,22 +669,22 @@
       <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>21</v>
       </c>
     </row>
